--- a/data/machine/dispatchList.xlsx
+++ b/data/machine/dispatchList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="14355" windowHeight="5580"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>machineID</t>
   </si>
@@ -111,9 +111,6 @@
     <t>预计产量</t>
   </si>
   <si>
-    <t>接收数量</t>
-  </si>
-  <si>
     <t>合格数量</t>
   </si>
   <si>
@@ -165,15 +162,6 @@
     <t>客户</t>
   </si>
   <si>
-    <t>条码信息</t>
-  </si>
-  <si>
-    <t>再造料条码信息</t>
-  </si>
-  <si>
-    <t>再造料数量</t>
-  </si>
-  <si>
     <t>是否套作</t>
   </si>
   <si>
@@ -192,15 +180,6 @@
     <t>customer</t>
   </si>
   <si>
-    <t>barCode</t>
-  </si>
-  <si>
-    <t>barcodeForReuse</t>
-  </si>
-  <si>
-    <t>quantityOfReused</t>
-  </si>
-  <si>
     <t>multiProduct</t>
   </si>
   <si>
@@ -269,6 +248,82 @@
   </si>
   <si>
     <t>印刷膜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际产量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>44-6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-05 13:20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-05 18:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-04-05 14:20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品颜色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>productColor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原材料代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rawMateialcode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>克重</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分切宽度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>productLength</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>productDiameter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>productWeight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>slitWidth</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>印刷面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>printSide</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -376,6 +431,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -383,15 +449,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,23 +462,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -719,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,327 +811,345 @@
     <col min="20" max="20" width="12.75" customWidth="1"/>
     <col min="23" max="23" width="9.875" customWidth="1"/>
     <col min="26" max="26" width="12.5" customWidth="1"/>
-    <col min="29" max="29" width="11.25" customWidth="1"/>
-    <col min="30" max="30" width="10.5" customWidth="1"/>
-    <col min="33" max="33" width="13.875" customWidth="1"/>
-    <col min="34" max="34" width="12.875" customWidth="1"/>
+    <col min="27" max="27" width="10.5" customWidth="1"/>
+    <col min="30" max="30" width="13.875" customWidth="1"/>
+    <col min="31" max="31" width="12.875" customWidth="1"/>
+    <col min="33" max="33" width="12.625" customWidth="1"/>
+    <col min="34" max="34" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="R2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="S2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AA2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AB2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="7">
+        <v>40</v>
+      </c>
+      <c r="I3" s="7">
+        <v>40</v>
+      </c>
+      <c r="J3" s="7">
+        <v>40</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="M3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="W3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AA3" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43184.875</v>
-      </c>
-      <c r="D3" s="6">
-        <v>43185.375</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="AB3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="H3" s="5">
-        <v>40</v>
-      </c>
-      <c r="I3" s="5">
-        <v>40</v>
-      </c>
-      <c r="J3" s="5">
-        <v>40</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="6">
-        <v>43184.875</v>
-      </c>
-      <c r="N3" s="6">
-        <v>43185.333333333336</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>16193</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/machine/dispatchList.xlsx
+++ b/data/machine/dispatchList.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MESSystem_180506\MESSystem\data\machine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="5520"/>
+    <workbookView xWindow="1290" yWindow="105" windowWidth="14355" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,8 +519,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -523,12 +528,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,7 +578,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,7 +613,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>

--- a/data/machine/dispatchList.xlsx
+++ b/data/machine/dispatchList.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MESSystem_180506\MESSystem\data\machine\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="105" windowWidth="14355" windowHeight="5520"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -324,14 +319,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>印刷面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>printSide</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>产品编号4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -361,6 +348,14 @@
   </si>
   <si>
     <t>comments</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次单编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesOrderBatchCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -519,8 +514,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,15 +523,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -578,7 +570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,7 +605,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -974,19 +966,19 @@
         <v>87</v>
       </c>
       <c r="AM1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ1" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.15">
@@ -1105,19 +1097,19 @@
         <v>91</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="AN2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.15">
